--- a/March-Twitter-Corona.xlsx
+++ b/March-Twitter-Corona.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12244\yoonp\independentCS\corona\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36614B95-ACAF-43AE-83FE-0C5D73EDF1DE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>2020-3-27</t>
   </si>
@@ -26,13 +32,19 @@
   </si>
   <si>
     <t>#RichFolkLockdownProblems: NED</t>
+  </si>
+  <si>
+    <t>2020-3-28</t>
+  </si>
+  <si>
+    <t>#StayAtHomeAndStaySafe: 152573</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +81,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -115,7 +135,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -147,9 +167,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -181,6 +219,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -356,14 +412,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -378,6 +436,17 @@
       </c>
       <c r="E1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>152573</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/March-Twitter-Corona.xlsx
+++ b/March-Twitter-Corona.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12244\yoonp\independentCS\corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36614B95-ACAF-43AE-83FE-0C5D73EDF1DE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6215628-086C-42A0-97D0-E058CA0F23D2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>2020-3-27</t>
   </si>
@@ -38,6 +38,36 @@
   </si>
   <si>
     <t>#StayAtHomeAndStaySafe: 152573</t>
+  </si>
+  <si>
+    <t>2020-3-29</t>
+  </si>
+  <si>
+    <t>Capitão Corona: 16814</t>
+  </si>
+  <si>
+    <t>#WhenCoronaVirusIsOver: 41322</t>
+  </si>
+  <si>
+    <t>#LGBTQuarantine: NED</t>
+  </si>
+  <si>
+    <t>2020-3-30</t>
+  </si>
+  <si>
+    <t>#Coronavirustruth: 153332</t>
+  </si>
+  <si>
+    <t>#TheLockdown: 45855</t>
+  </si>
+  <si>
+    <t>2020-3-31</t>
+  </si>
+  <si>
+    <t>#QuarantineAMovie: NED</t>
+  </si>
+  <si>
+    <t>(CHANGED GetCurrentTrends -&gt; GetTrendsWoeid)</t>
   </si>
 </sst>
 </file>
@@ -413,13 +443,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="32.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -447,6 +480,51 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>58136</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>199187</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
